--- a/biology/Botanique/Pin_d'Hispaniola/Pin_d'Hispaniola.xlsx
+++ b/biology/Botanique/Pin_d'Hispaniola/Pin_d'Hispaniola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pin_d%27Hispaniola</t>
+          <t>Pin_d'Hispaniola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus occidentalis
 Le Pin d'Hispaniola (Pinus occidentalis) est une espèce de plantes de la famille des Pinaceae. C'est un pin endémique de l'île d'Hispaniola, où cette espèce prédomine dans la forêt de pins de l'île d'Hispaniola à Haïti et en République dominicaine.
